--- a/Assets/Resources/Config/第四关.xlsx
+++ b/Assets/Resources/Config/第四关.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CGJ2025\everything-is-a-live\Assets\Resources\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E997E06-EFEC-4D64-ABB3-3D8032D7CEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14B960E-ED58-497F-A10C-5D9EF25C9F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -174,8 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
@@ -216,8 +215,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9226</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="墨迹 1">
@@ -236,7 +235,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="墨迹 1">
@@ -281,8 +280,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>442900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="墨迹 8">
@@ -301,7 +300,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="墨迹 8">
@@ -346,8 +345,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>579591</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="25" name="墨迹 24">
@@ -366,7 +365,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="25" name="墨迹 24">
@@ -411,8 +410,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>553906</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="33" name="墨迹 32">
@@ -431,7 +430,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="33" name="墨迹 32">
@@ -476,8 +475,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>634429</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="34" name="墨迹 33">
@@ -496,7 +495,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="34" name="墨迹 33">
@@ -541,8 +540,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>525231</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="35" name="墨迹 34">
@@ -561,7 +560,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="35" name="墨迹 34">
@@ -647,7 +646,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">455 0 24575,'0'26'0,"2"-1"0,0 0 0,9 34 0,-5-18 0,-2 1 0,-1 0 0,-5 70 0,0-28 0,3-19 0,-2 71 0,-11-75 0,8-45 0,1 0 0,-2 18 0,3-14 0,-8 34 0,5-34 0,-3 37 0,5-33 0,-8 34 0,7-36 0,0 0 0,-1 27 0,5-38-79,0 10-135,-1 1-1,-1 0 1,0-1 0,-2 1-1,-10 35 1,5-35-6612</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="560.35">1 1236 24575,'11'11'0,"2"-1"0,-1-1 0,1 0 0,1 0 0,-1-1 0,2-1 0,-1 0 0,1-1 0,16 4 0,-16-4 0,1 0 0,-1 2 0,-1-1 0,1 2 0,19 15 0,-15-10 0,39 20 0,-49-30 0,-5-2 0,0 1 0,1-1 0,-1-1 0,1 1 0,0-1 0,6 2 0,-9-3 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,2-2 0,13-18 0,-11 13 0,0 2 0,1-1 0,0 1 0,0 0 0,1 0 0,11-9 0,-6 6 0,-1 0 0,0-1 0,0-1 0,16-22 0,-13 16 0,20-20 0,-23 27 0,-4 5 0,0 0 0,-1-1 0,1 0 0,-1 0 0,-1-1 0,1 1 0,-1-1 0,4-9 0,-3 4 0,0 1 0,1 0 0,14-17 0,-3 3 0,-9 11-1365,-3 0-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="560.34">1 1236 24575,'11'11'0,"2"-1"0,-1-1 0,1 0 0,1 0 0,-1-1 0,2-1 0,-1 0 0,1-1 0,16 4 0,-16-4 0,1 0 0,-1 2 0,-1-1 0,1 2 0,19 15 0,-15-10 0,39 20 0,-49-30 0,-5-2 0,0 1 0,1-1 0,-1-1 0,1 1 0,0-1 0,6 2 0,-9-3 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,2-2 0,13-18 0,-11 13 0,0 2 0,1-1 0,0 1 0,0 0 0,1 0 0,11-9 0,-6 6 0,-1 0 0,0-1 0,0-1 0,16-22 0,-13 16 0,20-20 0,-23 27 0,-4 5 0,0 0 0,-1-1 0,1 0 0,-1 0 0,-1-1 0,1 1 0,-1-1 0,4-9 0,-3 4 0,0 1 0,1 0 0,14-17 0,-3 3 0,-9 11-1365,-3 0-5461</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1194.5">278 1513 24575,'0'1211'0,"1"-1193"0,1 0 0,1 0 0,1 0 0,1 0 0,8 22 0,8 32 0,-16-50-455,1-1 0,13 32 0,-12-38-6371</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1757.38">76 3125 24575,'0'25'0,"1"1"0,7 40 0,-5-55 0,0 0 0,0 0 0,1 0 0,0-1 0,1 1 0,0-1 0,1 0 0,8 12 0,82 121 0,-76-111 0,-7-12 0,25 29 0,-33-43 0,1 0 0,0 1 0,1-2 0,-1 1 0,1-1 0,0 0 0,15 7 0,-19-11 0,1 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 0 0,6-3 0,5-6 0,0 0 0,-1 0 0,15-17 0,4-3 0,27-21 0,-1-3 0,79-99 0,-98 102 0,51-60 0,-85 106-31,0-1 0,-1 0 0,1 0-1,-1-1 1,-1 1 0,6-16 0,-2 6-1116,-1 2-5679</inkml:trace>
 </inkml:ink>
@@ -1035,7 +1034,7 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="56.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1066,107 +1065,64 @@
     </row>
     <row r="2" spans="1:22" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="14">
+      <c r="D3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="N3" s="13">
         <v>22</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="13">
         <v>23</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
       <c r="D4" s="2">
         <v>10</v>
       </c>
       <c r="E4" s="2">
         <v>11</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="7"/>
       <c r="H4" s="2">
         <v>12</v>
       </c>
       <c r="I4" s="2">
         <v>13</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="7"/>
+      <c r="K4" s="7"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="13">
+      <c r="P4" s="12">
         <v>21</v>
       </c>
       <c r="Q4" s="6"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="7"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="4">
@@ -1176,24 +1132,18 @@
     </row>
     <row r="6" spans="1:22" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="13">
+      <c r="P6" s="12">
         <v>20</v>
       </c>
       <c r="Q6" s="6"/>
-      <c r="R6" s="7"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -1201,21 +1151,15 @@
     </row>
     <row r="7" spans="1:22" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9">
+      <c r="F7" s="7"/>
+      <c r="G7" s="8">
         <v>14</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>15</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="9">
+      <c r="J7" s="7"/>
+      <c r="L7" s="8">
         <v>16</v>
       </c>
       <c r="M7" s="3">
@@ -1224,7 +1168,6 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
-      <c r="R7" s="7"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5" t="s">
@@ -1234,21 +1177,14 @@
     </row>
     <row r="8" spans="1:22" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="11">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="Q8" s="10">
         <v>18</v>
       </c>
       <c r="R8" s="1"/>
@@ -1259,96 +1195,56 @@
     </row>
     <row r="9" spans="1:22" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="7" t="s">
+      <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
     </row>
     <row r="10" spans="1:22" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
       <c r="E10" s="2">
         <v>2</v>
       </c>
       <c r="F10" s="2">
         <v>3</v>
       </c>
-      <c r="G10" s="7"/>
       <c r="H10" s="2">
         <v>4</v>
       </c>
       <c r="I10" s="2">
         <v>5</v>
       </c>
-      <c r="J10" s="7"/>
       <c r="K10" s="2">
         <v>6</v>
       </c>
       <c r="L10" s="2">
         <v>7</v>
       </c>
-      <c r="M10" s="7"/>
       <c r="N10" s="2">
         <v>8</v>
       </c>
       <c r="O10" s="2">
         <v>9</v>
       </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
     </row>
     <row r="11" spans="1:22" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>1</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="12">
+      <c r="F11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="Q11" s="11">
         <v>19</v>
       </c>
       <c r="R11" s="1"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
     </row>
     <row r="12" spans="1:22" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -1369,10 +1265,6 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Config/第四关.xlsx
+++ b/Assets/Resources/Config/第四关.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CGJ2025\everything-is-a-live\Assets\Resources\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14B960E-ED58-497F-A10C-5D9EF25C9F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AD7B01-1C22-4C53-8A88-5B1B046E0C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -646,7 +646,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">455 0 24575,'0'26'0,"2"-1"0,0 0 0,9 34 0,-5-18 0,-2 1 0,-1 0 0,-5 70 0,0-28 0,3-19 0,-2 71 0,-11-75 0,8-45 0,1 0 0,-2 18 0,3-14 0,-8 34 0,5-34 0,-3 37 0,5-33 0,-8 34 0,7-36 0,0 0 0,-1 27 0,5-38-79,0 10-135,-1 1-1,-1 0 1,0-1 0,-2 1-1,-10 35 1,5-35-6612</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="560.34">1 1236 24575,'11'11'0,"2"-1"0,-1-1 0,1 0 0,1 0 0,-1-1 0,2-1 0,-1 0 0,1-1 0,16 4 0,-16-4 0,1 0 0,-1 2 0,-1-1 0,1 2 0,19 15 0,-15-10 0,39 20 0,-49-30 0,-5-2 0,0 1 0,1-1 0,-1-1 0,1 1 0,0-1 0,6 2 0,-9-3 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,2-2 0,13-18 0,-11 13 0,0 2 0,1-1 0,0 1 0,0 0 0,1 0 0,11-9 0,-6 6 0,-1 0 0,0-1 0,0-1 0,16-22 0,-13 16 0,20-20 0,-23 27 0,-4 5 0,0 0 0,-1-1 0,1 0 0,-1 0 0,-1-1 0,1 1 0,-1-1 0,4-9 0,-3 4 0,0 1 0,1 0 0,14-17 0,-3 3 0,-9 11-1365,-3 0-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="560.33">1 1236 24575,'11'11'0,"2"-1"0,-1-1 0,1 0 0,1 0 0,-1-1 0,2-1 0,-1 0 0,1-1 0,16 4 0,-16-4 0,1 0 0,-1 2 0,-1-1 0,1 2 0,19 15 0,-15-10 0,39 20 0,-49-30 0,-5-2 0,0 1 0,1-1 0,-1-1 0,1 1 0,0-1 0,6 2 0,-9-3 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,2-2 0,13-18 0,-11 13 0,0 2 0,1-1 0,0 1 0,0 0 0,1 0 0,11-9 0,-6 6 0,-1 0 0,0-1 0,0-1 0,16-22 0,-13 16 0,20-20 0,-23 27 0,-4 5 0,0 0 0,-1-1 0,1 0 0,-1 0 0,-1-1 0,1 1 0,-1-1 0,4-9 0,-3 4 0,0 1 0,1 0 0,14-17 0,-3 3 0,-9 11-1365,-3 0-5461</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1194.5">278 1513 24575,'0'1211'0,"1"-1193"0,1 0 0,1 0 0,1 0 0,1 0 0,8 22 0,8 32 0,-16-50-455,1-1 0,13 32 0,-12-38-6371</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1757.38">76 3125 24575,'0'25'0,"1"1"0,7 40 0,-5-55 0,0 0 0,0 0 0,1 0 0,0-1 0,1 1 0,0-1 0,1 0 0,8 12 0,82 121 0,-76-111 0,-7-12 0,25 29 0,-33-43 0,1 0 0,0 1 0,1-2 0,-1 1 0,1-1 0,0 0 0,15 7 0,-19-11 0,1 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 0 0,6-3 0,5-6 0,0 0 0,-1 0 0,15-17 0,4-3 0,27-21 0,-1-3 0,79-99 0,-98 102 0,51-60 0,-85 106-31,0-1 0,-1 0 0,1 0-1,-1-1 1,-1 1 0,6-16 0,-2 6-1116,-1 2-5679</inkml:trace>
 </inkml:ink>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="56.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1123,6 +1123,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="4">
@@ -1144,6 +1145,7 @@
         <v>20</v>
       </c>
       <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
